--- a/tables/crop_classifications/LV_crop_classification_final.xlsx
+++ b/tables/crop_classifications/LV_crop_classification_final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\Phillip\korrektur_Hcat\Copy_classifications_final_corrected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1196A2-53BD-46DD-8AC7-A550A5330C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="5670"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="751">
   <si>
     <t>crop_code</t>
   </si>
@@ -1924,12 +1925,363 @@
   </si>
   <si>
     <t>country_code</t>
+  </si>
+  <si>
+    <t>Zaļmēslojuma augu papuve</t>
+  </si>
+  <si>
+    <t>Kārkli</t>
+  </si>
+  <si>
+    <t>Muskata ķirbis</t>
+  </si>
+  <si>
+    <t>Citur neminēti ilggadīgie stādījumi ēdamo augļu un ogu ieguvei</t>
+  </si>
+  <si>
+    <t>Zirņi ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Lielaugļu ķirbis</t>
+  </si>
+  <si>
+    <t>Saulespuķe</t>
+  </si>
+  <si>
+    <t>Sarkanais āboliņš sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Baltais āboliņš sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Inkarnāta āboliņš</t>
+  </si>
+  <si>
+    <t>Pupas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Austrumu galega sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Sierāboliņš</t>
+  </si>
+  <si>
+    <t>Lucerna sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Bastarda āboliņš sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Amoliņš sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Esparsete sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Garšaugi un kultivēti ārstniecības augi (fenhelis, baziliks, timiāns, estragons, anīss, majorāns, oregano jeb raudene, salvija, izops, piparmētra, pupumētra, vērmele, lofants, naktssvece, deviņvīru spēks, ābolmētra, citronmelisa, tauksakne, ehinācija, ārstniecības lupstājs, dižzirdzene, raspodiņš, sirds mātere)</t>
+  </si>
+  <si>
+    <t>Rudzi, populācijas šķirnes, t.sk. ‘Kaupo’ ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Tritikāle, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Lupīna (saldās jeb dzeltenās, baltās, šaurlapu)</t>
+  </si>
+  <si>
+    <t>Graudaugu un vīķu maisījums, kurā vīķi &gt; 50 %</t>
+  </si>
+  <si>
+    <t>Graudaugu un zirņu maisījums, kurā zirņi &gt; 50 %, ar stiebrzāļu vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Sinepe, tostarp baltā sinepe</t>
+  </si>
+  <si>
+    <t>Rudzi, ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Nektāraugi savstarpējos maisījumos vai citur neminētie nektāraugi (t.sk. zilā kāpnīte, malva, izops, mātere, gurķumētra, salvija, citronmētra, tauksakne, raudene)</t>
+  </si>
+  <si>
+    <t>Citi kultivēti nektāraugi (ežziede, biškrēsliņš, pūķgalve, melisa (citronmētra, citronmelisa), daglītis, dedestiņa, kaķumētra, rudzupuķe)</t>
+  </si>
+  <si>
+    <t>Dārza ķirbis, cukīni, kabači, patisoni</t>
+  </si>
+  <si>
+    <t>Kvieši, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Vīķi, vasaras sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Vīķi, ziemas sēklas ieguvei</t>
+  </si>
+  <si>
+    <t>Mieži, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Kumelīte, vasaras</t>
+  </si>
+  <si>
+    <t>Speltas kvieši, vasaras ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Kumelīte, ziemas</t>
+  </si>
+  <si>
+    <t>Speltas kvieši, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
+  </si>
+  <si>
+    <t>Green manure plant fallow</t>
+  </si>
+  <si>
+    <t>Triticale, winter with grass or legume crop</t>
+  </si>
+  <si>
+    <t>Lupin (sweet or yellow, white, narrow-leaved)</t>
+  </si>
+  <si>
+    <t>Mixture of cereals and vetches, with &gt; 50 % of vetches</t>
+  </si>
+  <si>
+    <t>Mixture of cereals and peas, peas &gt; 50 %, with grass or leguminous legume undergrowth</t>
+  </si>
+  <si>
+    <t>Mustard, including white mustard</t>
+  </si>
+  <si>
+    <t>Rye, with grass or legume undergrowth</t>
+  </si>
+  <si>
+    <t>Nectar plants in mixtures or nectar plants not otherwise specified (including blue spurge, mallow, hyssop, motherwort, borage, sage, lemon mint, greasewood, oregano)</t>
+  </si>
+  <si>
+    <t>Muscadine pumpkin</t>
+  </si>
+  <si>
+    <t>Other cultivated nectar plants (echinacea, bee-rush, dragonhead, lemon balm, lemon balm, dogwood, hemlock, catmint, cornflower)</t>
+  </si>
+  <si>
+    <t>Herbs and cultivated medicinal plants (fennel, basil, thyme, tarragon, anise, marjoram, oregano or oregano, sage, hyssop, mint, spearmint, spearmint, wormwood, lofant, nightshade, nightshade, applemint, lemon balm, lemon balm, greasewood, echinacea, herb ragwort, beech, dewdrop, heart motherwort)</t>
+  </si>
+  <si>
+    <t>Garden pumpkin, courgettes, courgettes, patisons</t>
+  </si>
+  <si>
+    <t>Wheat, winter with grass or butterfly crop</t>
+  </si>
+  <si>
+    <t>Vetch, for summer seed</t>
+  </si>
+  <si>
+    <t>Vetch, for winter seed production</t>
+  </si>
+  <si>
+    <t>Perennial crops for edible fruit and berries, not elsewhere specified</t>
+  </si>
+  <si>
+    <t>Peas under grass or legume crops</t>
+  </si>
+  <si>
+    <t>Butternut squash</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Rye, varieties of the population, including 'Kaupo' with grass or legume undergrowth</t>
+  </si>
+  <si>
+    <t>Red clover for seed production</t>
+  </si>
+  <si>
+    <t>White clover for seed production</t>
+  </si>
+  <si>
+    <t>Incarnate clover</t>
+  </si>
+  <si>
+    <t>Barley, winter with grass or butterfly crop</t>
+  </si>
+  <si>
+    <t>Beans with grass or legume undergrowth</t>
+  </si>
+  <si>
+    <t>Chamomile, spring</t>
+  </si>
+  <si>
+    <t>Spelt, spring with grass or legume</t>
+  </si>
+  <si>
+    <t>Eastern galega for seed production</t>
+  </si>
+  <si>
+    <t>Chamomile, winter</t>
+  </si>
+  <si>
+    <t>Cheese clover</t>
+  </si>
+  <si>
+    <t>Lucerne for seed production</t>
+  </si>
+  <si>
+    <t>Bastard clover for seed production</t>
+  </si>
+  <si>
+    <t>Clover for seed production</t>
+  </si>
+  <si>
+    <t>Spelt, winter with grass or legume undergrowth</t>
+  </si>
+  <si>
+    <t>Esparsete for seed production</t>
+  </si>
+  <si>
+    <t>Gründüngungspflanze Brache</t>
+  </si>
+  <si>
+    <t>Triticale, Winter mit Gras oder Leguminosen</t>
+  </si>
+  <si>
+    <t>Mischung aus Getreide und Wicken, mit &gt; 50 % Wicken</t>
+  </si>
+  <si>
+    <t>Mischung aus Getreide und Erbsen, davon &gt; 50 % Erbsen, mit Gras- oder Hülsenfruchtunterwuchs</t>
+  </si>
+  <si>
+    <t>Senf, einschließlich weißer Senf</t>
+  </si>
+  <si>
+    <t>Roggen, mit Gras- oder Leguminosenunterwuchs</t>
+  </si>
+  <si>
+    <t>Nektarpflanzen in Mischungen oder Nektarpflanzen, die nicht anderweitig genannt sind (einschließlich Blaue Wolfsmilch, Malve, Ysop, Mutterkraut, Borretsch, Salbei, Zitronenminze, Fettkraut, Oregano)</t>
+  </si>
+  <si>
+    <t>Muskateller-Kürbis</t>
+  </si>
+  <si>
+    <t>Andere kultivierte Nektarpflanzen (Echinacea, Bienenfreund, Drachenkopf, Melisse, Hartriegel, Schierling, Katzenminze, Kornblume)</t>
+  </si>
+  <si>
+    <t>Kräuter und kultivierte Heilpflanzen (Fenchel, Basilikum, Thymian, Estragon, Anis, Majoran, Oregano, Salbei, Ysop, Minze, Krauseminze, Wermut, Lofant, Nachtschatten, Nachtschattengewächse, Apfelminze, Zitronenmelisse, Melisse, Sonnenhut, Echinacea, Kreuzkraut, Buche, Tautropfen, Herzgespann)</t>
+  </si>
+  <si>
+    <t>Gartenkürbis, Zucchini, Zucchinis, Patisons</t>
+  </si>
+  <si>
+    <t>Weizen, Winter mit Gras oder Schmetterlingsfrucht</t>
+  </si>
+  <si>
+    <t>Wicke, für Sommersaatgut</t>
+  </si>
+  <si>
+    <t>Wicke, für die Wintersaatgutproduktion</t>
+  </si>
+  <si>
+    <t>Mehrjährige Kulturen für essbare Früchte und Beeren, anderweitig nicht genannt</t>
+  </si>
+  <si>
+    <t>Erbsen unter Gras- oder Hülsenfruchtkulturen</t>
+  </si>
+  <si>
+    <t>Butternut-Kürbis</t>
+  </si>
+  <si>
+    <t>Sonnenblumen</t>
+  </si>
+  <si>
+    <t>Roggen, Sorten der Population, einschließlich „Kaupo“ mit Gras- oder Hülsenfruchtunterwuchs</t>
+  </si>
+  <si>
+    <t>Rotklee zur Saatguterzeugung</t>
+  </si>
+  <si>
+    <t>Weißklee für die Saatguterzeugung</t>
+  </si>
+  <si>
+    <t>Inkarnatklee</t>
+  </si>
+  <si>
+    <t>Gerste, Wintergerste mit Gras oder Schmetterlingsblütlern</t>
+  </si>
+  <si>
+    <t>Bohnen mit Gras- oder Leguminosenunterwuchs</t>
+  </si>
+  <si>
+    <t>Kamille, Frühjahr</t>
+  </si>
+  <si>
+    <t>Dinkel, Frühjahr mit Gras oder Leguminosen</t>
+  </si>
+  <si>
+    <t>Östliche Galega zur Saatguterzeugung</t>
+  </si>
+  <si>
+    <t>Kamille, Winter</t>
+  </si>
+  <si>
+    <t>Käseklee</t>
+  </si>
+  <si>
+    <t>Luzerne für die Saatguterzeugung</t>
+  </si>
+  <si>
+    <t>Bastardklee für die Saatguterzeugung</t>
+  </si>
+  <si>
+    <t>Klee für die Saatguterzeugung</t>
+  </si>
+  <si>
+    <t>Dinkel, Winter mit Gras- oder Leguminosenunterwuchs</t>
+  </si>
+  <si>
+    <t>Esparsette für die Saatguterzeugung</t>
+  </si>
+  <si>
+    <t>legumes_harvested_green</t>
+  </si>
+  <si>
+    <t>pumpkin_squash_gourd</t>
+  </si>
+  <si>
+    <t>winter_durum_hard_wheat</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>spelt</t>
+  </si>
+  <si>
+    <t>other_plants_harvested_green</t>
+  </si>
+  <si>
+    <t>triticale</t>
+  </si>
+  <si>
+    <t>Weide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pupas ar stiebrzāļu pasēju vai tauriņziežu pasēju  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beans with grass or legume crops  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohnen mit Gras- oder Hülsenfruchtanbau  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1980,15 +2332,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2287,26 +2645,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="68.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="63.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,14 +2683,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>446</v>
       </c>
@@ -2351,14 +2709,14 @@
       <c r="F2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>3301011500</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>445</v>
       </c>
@@ -2377,14 +2735,14 @@
       <c r="F3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>3301011500</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>792</v>
       </c>
@@ -2403,14 +2761,14 @@
       <c r="F4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>3399000000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>939</v>
       </c>
@@ -2429,14 +2787,14 @@
       <c r="F5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>3399000000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>610</v>
       </c>
@@ -2455,14 +2813,14 @@
       <c r="F6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>3399000000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>619</v>
       </c>
@@ -2481,14 +2839,14 @@
       <c r="F7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>3399000000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>857</v>
       </c>
@@ -2507,14 +2865,14 @@
       <c r="F8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>3301140000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>792</v>
       </c>
@@ -2533,14 +2891,14 @@
       <c r="F9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>3399000000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>729</v>
       </c>
@@ -2559,14 +2917,14 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>3301090303</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>644</v>
       </c>
@@ -2585,14 +2943,14 @@
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>3306020000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>760</v>
       </c>
@@ -2611,14 +2969,14 @@
       <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>3302000000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>720</v>
       </c>
@@ -2637,14 +2995,14 @@
       <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>3302000000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>720</v>
       </c>
@@ -2663,14 +3021,14 @@
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>3302000000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>760</v>
       </c>
@@ -2689,14 +3047,14 @@
       <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>3302000000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>937</v>
       </c>
@@ -2715,14 +3073,14 @@
       <c r="F16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>3301140300</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>918</v>
       </c>
@@ -2741,14 +3099,14 @@
       <c r="F17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>3303020100</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>950</v>
       </c>
@@ -2767,14 +3125,14 @@
       <c r="F18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>3303020000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>950</v>
       </c>
@@ -2793,14 +3151,14 @@
       <c r="F19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>3303020000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>727</v>
       </c>
@@ -2819,14 +3177,14 @@
       <c r="F20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>3301081900</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>140</v>
       </c>
@@ -2845,14 +3203,14 @@
       <c r="F21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>3301010500</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>141</v>
       </c>
@@ -2871,14 +3229,14 @@
       <c r="F22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>3301010500</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>761</v>
       </c>
@@ -2897,14 +3255,14 @@
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>3301090202</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>921</v>
       </c>
@@ -2923,14 +3281,14 @@
       <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>3303021000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>724</v>
       </c>
@@ -2949,14 +3307,14 @@
       <c r="F25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>3301090303</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>646</v>
       </c>
@@ -2975,14 +3333,14 @@
       <c r="F26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>3306000000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>725</v>
       </c>
@@ -3001,14 +3359,14 @@
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>3301090303</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>912</v>
       </c>
@@ -3027,14 +3385,14 @@
       <c r="F28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>3303011200</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>843</v>
       </c>
@@ -3053,14 +3411,14 @@
       <c r="F29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>3301290300</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>825</v>
       </c>
@@ -3079,14 +3437,14 @@
       <c r="F30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>3301030000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>883</v>
       </c>
@@ -3105,14 +3463,14 @@
       <c r="F31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>3301310200</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>930</v>
       </c>
@@ -3131,14 +3489,14 @@
       <c r="F32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>3301061200</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>741</v>
       </c>
@@ -3157,14 +3515,14 @@
       <c r="F33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <v>3301010600</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>713</v>
       </c>
@@ -3183,14 +3541,14 @@
       <c r="F34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>3302000000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>952</v>
       </c>
@@ -3209,14 +3567,14 @@
       <c r="F35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <v>3303000000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>870</v>
       </c>
@@ -3235,14 +3593,14 @@
       <c r="F36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="5">
         <v>3301210200</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>734</v>
       </c>
@@ -3261,14 +3619,14 @@
       <c r="F37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>3301090205</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>811</v>
       </c>
@@ -3287,14 +3645,14 @@
       <c r="F38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="5">
         <v>3301990000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>811</v>
       </c>
@@ -3313,14 +3671,14 @@
       <c r="F39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="5">
         <v>3301990000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>931</v>
       </c>
@@ -3339,14 +3697,14 @@
       <c r="F40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>3303021300</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41" s="2" t="s">
         <v>144</v>
@@ -3359,14 +3717,14 @@
       <c r="F41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="5">
         <v>3301140000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>871</v>
       </c>
@@ -3385,14 +3743,14 @@
       <c r="F42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="5">
         <v>3301070000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>871</v>
       </c>
@@ -3411,14 +3769,14 @@
       <c r="F43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="5">
         <v>3301070000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>714</v>
       </c>
@@ -3437,14 +3795,14 @@
       <c r="F44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="5">
         <v>3301020300</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>715</v>
       </c>
@@ -3463,14 +3821,14 @@
       <c r="F45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="5">
         <v>3301061400</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>716</v>
       </c>
@@ -3489,14 +3847,14 @@
       <c r="F46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="5">
         <v>3301061400</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>844</v>
       </c>
@@ -3515,14 +3873,14 @@
       <c r="F47" t="s">
         <v>628</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="6">
         <v>3301310100</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>856</v>
       </c>
@@ -3541,14 +3899,14 @@
       <c r="F48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="5">
         <v>3301210500</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>851</v>
       </c>
@@ -3567,14 +3925,14 @@
       <c r="F49" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="5">
         <v>3301290800</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>736</v>
       </c>
@@ -3593,14 +3951,14 @@
       <c r="F50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="5">
         <v>3301090205</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51" s="2" t="s">
         <v>183</v>
@@ -3613,14 +3971,14 @@
       <c r="F51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="5">
         <v>3301061200</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>848</v>
       </c>
@@ -3639,14 +3997,14 @@
       <c r="F52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="5">
         <v>3301061200</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>445</v>
       </c>
@@ -3665,14 +4023,14 @@
       <c r="F53" t="s">
         <v>629</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="6">
         <v>3301020000</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>160</v>
       </c>
@@ -3691,14 +4049,14 @@
       <c r="F54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="5">
         <v>3301150200</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>161</v>
       </c>
@@ -3717,14 +4075,14 @@
       <c r="F55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="5">
         <v>3301150200</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>845</v>
       </c>
@@ -3743,14 +4101,14 @@
       <c r="F56" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="5">
         <v>3301140100</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>733</v>
       </c>
@@ -3769,14 +4127,14 @@
       <c r="F57" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="5">
         <v>3301010300</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>710</v>
       </c>
@@ -3795,14 +4153,14 @@
       <c r="F58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="5">
         <v>3302000000</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59" s="2" t="s">
         <v>389</v>
@@ -3815,14 +4173,14 @@
       <c r="F59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="5">
         <v>3399000000</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>739</v>
       </c>
@@ -3841,14 +4199,14 @@
       <c r="F60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="5">
         <v>3301061213</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>820</v>
       </c>
@@ -3867,14 +4225,14 @@
       <c r="F61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="5">
         <v>3301030000</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>929</v>
       </c>
@@ -3893,14 +4251,14 @@
       <c r="F62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="5">
         <v>3303020200</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>170</v>
       </c>
@@ -3919,14 +4277,14 @@
       <c r="F63" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="5">
         <v>3301061000</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>882</v>
       </c>
@@ -3945,14 +4303,14 @@
       <c r="F64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="5">
         <v>3301061210</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65" s="2" t="s">
         <v>245</v>
@@ -3965,14 +4323,14 @@
       <c r="F65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="5">
         <v>3301090208</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>640</v>
       </c>
@@ -3991,14 +4349,14 @@
       <c r="F66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="5">
         <v>3303070000</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>928</v>
       </c>
@@ -4017,14 +4375,14 @@
       <c r="F67" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="5">
         <v>3303011500</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>924</v>
       </c>
@@ -4043,14 +4401,14 @@
       <c r="F68" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="5">
         <v>3303020400</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>791</v>
       </c>
@@ -4069,14 +4427,14 @@
       <c r="F69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="5">
         <v>3301010600</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>881</v>
       </c>
@@ -4095,14 +4453,14 @@
       <c r="F70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="5">
         <v>3301061213</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>113</v>
       </c>
@@ -4121,14 +4479,14 @@
       <c r="F71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="5">
         <v>3301010102</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>111</v>
       </c>
@@ -4147,14 +4505,14 @@
       <c r="F72" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="5">
         <v>3301010102</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>112</v>
       </c>
@@ -4173,14 +4531,14 @@
       <c r="F73" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="5">
         <v>3301010101</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>645</v>
       </c>
@@ -4199,14 +4557,14 @@
       <c r="F74" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="5">
         <v>3306080000</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>620</v>
       </c>
@@ -4225,14 +4583,14 @@
       <c r="F75" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="5">
         <v>3303020600</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>410</v>
       </c>
@@ -4251,14 +4609,14 @@
       <c r="F76" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="5">
         <v>3301020100</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>885</v>
       </c>
@@ -4277,14 +4635,14 @@
       <c r="F77" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="5">
         <v>3301061219</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>934</v>
       </c>
@@ -4303,14 +4661,14 @@
       <c r="F78" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="5">
         <v>3303020500</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>330</v>
       </c>
@@ -4329,14 +4687,14 @@
       <c r="F79" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="5">
         <v>3301060702</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>310</v>
       </c>
@@ -4355,14 +4713,14 @@
       <c r="F80" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="5">
         <v>3301060701</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>831</v>
       </c>
@@ -4381,14 +4739,14 @@
       <c r="F81" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="5">
         <v>3301290400</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>726</v>
       </c>
@@ -4407,14 +4765,14 @@
       <c r="F82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="5">
         <v>3301090301</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>430</v>
       </c>
@@ -4433,14 +4791,14 @@
       <c r="F83" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="5">
         <v>3301020700</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>641</v>
       </c>
@@ -4459,14 +4817,14 @@
       <c r="F84" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="5">
         <v>3301011400</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>133</v>
       </c>
@@ -4485,14 +4843,14 @@
       <c r="F85" t="s">
         <v>630</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="6">
         <v>3301010402</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>131</v>
       </c>
@@ -4511,14 +4869,14 @@
       <c r="F86" t="s">
         <v>630</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="6">
         <v>3301010402</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>132</v>
       </c>
@@ -4537,14 +4895,14 @@
       <c r="F87" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="5">
         <v>3301010401</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>879</v>
       </c>
@@ -4563,14 +4921,14 @@
       <c r="F88" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="5">
         <v>3301061300</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>863</v>
       </c>
@@ -4589,14 +4947,14 @@
       <c r="F89" t="s">
         <v>355</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="6">
         <v>3301210400</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>737</v>
       </c>
@@ -4615,14 +4973,14 @@
       <c r="F90" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="5">
         <v>3301090202</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>867</v>
       </c>
@@ -4641,14 +4999,14 @@
       <c r="F91" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="5">
         <v>3301300100</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>610</v>
       </c>
@@ -4667,14 +5025,14 @@
       <c r="F92" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="5">
         <v>3301110000</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>874</v>
       </c>
@@ -4693,14 +5051,14 @@
       <c r="F93" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="5">
         <v>3301061203</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>859</v>
       </c>
@@ -4719,14 +5077,14 @@
       <c r="F94" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="5">
         <v>3301020100</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>855</v>
       </c>
@@ -4745,14 +5103,14 @@
       <c r="F95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="5">
         <v>3301290500</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>914</v>
       </c>
@@ -4771,14 +5129,14 @@
       <c r="F96" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="5">
         <v>3303011300</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>915</v>
       </c>
@@ -4797,14 +5155,14 @@
       <c r="F97" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="5">
         <v>3303080400</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>849</v>
       </c>
@@ -4823,14 +5181,14 @@
       <c r="F98" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="5">
         <v>3301220300</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>873</v>
       </c>
@@ -4849,14 +5207,14 @@
       <c r="F99" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="5">
         <v>3301990000</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>872</v>
       </c>
@@ -4875,14 +5233,14 @@
       <c r="F100" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="5">
         <v>3301990000</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>854</v>
       </c>
@@ -4901,14 +5259,14 @@
       <c r="F101" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="5">
         <v>3301061227</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>732</v>
       </c>
@@ -4927,14 +5285,14 @@
       <c r="F102" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="5">
         <v>3301090202</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>738</v>
       </c>
@@ -4953,14 +5311,14 @@
       <c r="F103" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="5">
         <v>3301090202</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>731</v>
       </c>
@@ -4979,14 +5337,14 @@
       <c r="F104" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="5">
         <v>3301090209</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>861</v>
       </c>
@@ -5005,14 +5363,14 @@
       <c r="F105" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="5">
         <v>3301230000</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>728</v>
       </c>
@@ -5031,14 +5389,14 @@
       <c r="F106" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="5">
         <v>3301082600</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>211</v>
       </c>
@@ -5057,14 +5415,14 @@
       <c r="F107" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="5">
         <v>3301060403</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>212</v>
       </c>
@@ -5083,14 +5441,14 @@
       <c r="F108" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="5">
         <v>3301060401</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>853</v>
       </c>
@@ -5109,14 +5467,14 @@
       <c r="F109" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="5">
         <v>3301290600</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>213</v>
       </c>
@@ -5135,14 +5493,14 @@
       <c r="F110" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="5">
         <v>3301060403</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>214</v>
       </c>
@@ -5161,14 +5519,14 @@
       <c r="F111" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="5">
         <v>3301060401</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>121</v>
       </c>
@@ -5187,14 +5545,14 @@
       <c r="F112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="5">
         <v>3301010300</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>122</v>
       </c>
@@ -5213,14 +5571,14 @@
       <c r="F113" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="5">
         <v>3301010300</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>122</v>
       </c>
@@ -5239,14 +5597,14 @@
       <c r="F114" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="5">
         <v>3301010300</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>123</v>
       </c>
@@ -5265,14 +5623,14 @@
       <c r="F115" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="5">
         <v>3301010300</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>932</v>
       </c>
@@ -5291,14 +5649,14 @@
       <c r="F116" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="5">
         <v>3303010400</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>864</v>
       </c>
@@ -5317,14 +5675,14 @@
       <c r="F117" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="5">
         <v>3301310000</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>723</v>
       </c>
@@ -5343,14 +5701,14 @@
       <c r="F118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="5">
         <v>3301090303</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>735</v>
       </c>
@@ -5369,14 +5727,14 @@
       <c r="F119" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="5">
         <v>3301090202</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>933</v>
       </c>
@@ -5395,14 +5753,14 @@
       <c r="F120" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120" s="5">
         <v>3303020600</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>938</v>
       </c>
@@ -5421,14 +5779,14 @@
       <c r="F121" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="5">
         <v>3303080500</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>852</v>
       </c>
@@ -5447,14 +5805,14 @@
       <c r="F122" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="5">
         <v>3301250000</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>215</v>
       </c>
@@ -5473,14 +5831,14 @@
       <c r="F123" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="5">
         <v>3301210100</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>216</v>
       </c>
@@ -5499,14 +5857,14 @@
       <c r="F124" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="5">
         <v>3301210100</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>216</v>
       </c>
@@ -5525,14 +5883,14 @@
       <c r="F125" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="5">
         <v>3301210100</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>860</v>
       </c>
@@ -5551,14 +5909,14 @@
       <c r="F126" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126" s="5">
         <v>3301310700</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>919</v>
       </c>
@@ -5577,14 +5935,14 @@
       <c r="F127" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127" s="5">
         <v>3303020800</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>443</v>
       </c>
@@ -5603,14 +5961,14 @@
       <c r="F128" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128" s="5">
         <v>3301160000</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>869</v>
       </c>
@@ -5629,14 +5987,14 @@
       <c r="F129" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129" s="5">
         <v>3301200000</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>115</v>
       </c>
@@ -5655,14 +6013,14 @@
       <c r="F130" t="s">
         <v>631</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="6">
         <v>3301011002</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>116</v>
       </c>
@@ -5681,14 +6039,14 @@
       <c r="F131" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="5">
         <v>3301011001</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>862</v>
       </c>
@@ -5707,14 +6065,14 @@
       <c r="F132" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="5">
         <v>3301310800</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>877</v>
       </c>
@@ -5733,14 +6091,14 @@
       <c r="F133" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="5">
         <v>3301061215</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>821</v>
       </c>
@@ -5759,14 +6117,14 @@
       <c r="F134" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="5">
         <v>3301030000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>846</v>
       </c>
@@ -5785,14 +6143,14 @@
       <c r="F135" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="5">
         <v>3301220000</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>826</v>
       </c>
@@ -5811,14 +6169,14 @@
       <c r="F136" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="5">
         <v>3301280000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>865</v>
       </c>
@@ -5837,14 +6195,14 @@
       <c r="F137" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="5">
         <v>3301180000</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>152</v>
       </c>
@@ -5863,14 +6221,14 @@
       <c r="F138" t="s">
         <v>632</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="6">
         <v>3301010802</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>150</v>
       </c>
@@ -5889,14 +6247,14 @@
       <c r="F139" t="s">
         <v>632</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="6">
         <v>3301010802</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>151</v>
       </c>
@@ -5915,14 +6273,14 @@
       <c r="F140" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="5">
         <v>3301010801</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>922</v>
       </c>
@@ -5941,14 +6299,14 @@
       <c r="F141" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="5">
         <v>3303020300</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>935</v>
       </c>
@@ -5967,14 +6325,14 @@
       <c r="F142" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142" s="5">
         <v>3303060000</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>858</v>
       </c>
@@ -5993,14 +6351,14 @@
       <c r="F143" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="5">
         <v>3303010600</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>441</v>
       </c>
@@ -6019,14 +6377,14 @@
       <c r="F144" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144" s="5">
         <v>3301090305</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>442</v>
       </c>
@@ -6045,14 +6403,14 @@
       <c r="F145" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145" s="5">
         <v>3301090305</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>926</v>
       </c>
@@ -6071,14 +6429,14 @@
       <c r="F146" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146" s="5">
         <v>3301130000</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>842</v>
       </c>
@@ -6097,14 +6455,14 @@
       <c r="F147" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G147" s="5">
         <v>3301210204</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>420</v>
       </c>
@@ -6123,14 +6481,14 @@
       <c r="F148" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148" s="5">
         <v>3301020600</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>911</v>
       </c>
@@ -6149,14 +6507,14 @@
       <c r="F149" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="5">
         <v>3303010200</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>884</v>
       </c>
@@ -6175,14 +6533,14 @@
       <c r="F150" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150" s="5">
         <v>3301061209</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>927</v>
       </c>
@@ -6201,14 +6559,14 @@
       <c r="F151" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="5">
         <v>3303020700</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>878</v>
       </c>
@@ -6227,14 +6585,14 @@
       <c r="F152" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152" s="5">
         <v>3301061211</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>847</v>
       </c>
@@ -6253,15 +6611,977 @@
       <c r="F153" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153" s="5">
         <v>3301220200</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>627</v>
       </c>
     </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>612</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F154" t="s">
+        <v>745</v>
+      </c>
+      <c r="G154" s="6">
+        <v>3301099900</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F155" t="s">
+        <v>746</v>
+      </c>
+      <c r="G155" s="6">
+        <v>3301010800</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>430</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F156" t="s">
+        <v>329</v>
+      </c>
+      <c r="G156" s="6">
+        <v>3301020700</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>447</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F157" t="s">
+        <v>589</v>
+      </c>
+      <c r="G157" s="6">
+        <v>3301090305</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>446</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F158" t="s">
+        <v>739</v>
+      </c>
+      <c r="G158" s="6">
+        <v>3301090300</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>215</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F159" t="s">
+        <v>499</v>
+      </c>
+      <c r="G159" s="6">
+        <v>3301210100</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>645</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F160" t="s">
+        <v>287</v>
+      </c>
+      <c r="G160" s="6">
+        <v>3306080000</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>124</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F161" t="s">
+        <v>216</v>
+      </c>
+      <c r="G161" s="6">
+        <v>3301010300</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>940</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F162" t="s">
+        <v>107</v>
+      </c>
+      <c r="G162" s="6">
+        <v>3301061200</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>887</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F163" t="s">
+        <v>740</v>
+      </c>
+      <c r="G163" s="6">
+        <v>3301140400</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>930</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F164" t="s">
+        <v>107</v>
+      </c>
+      <c r="G164" s="6">
+        <v>3301061200</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>848</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F165" t="s">
+        <v>107</v>
+      </c>
+      <c r="G165" s="6">
+        <v>3301061200</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>857</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F166" t="s">
+        <v>740</v>
+      </c>
+      <c r="G166" s="6">
+        <v>3301140400</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>117</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F167" t="s">
+        <v>741</v>
+      </c>
+      <c r="G167" s="6">
+        <v>3301010201</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>471</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F168" t="s">
+        <v>589</v>
+      </c>
+      <c r="G168" s="6">
+        <v>3301090305</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>472</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F169" t="s">
+        <v>589</v>
+      </c>
+      <c r="G169" s="6">
+        <v>3301090305</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>952</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F170" t="s">
+        <v>53</v>
+      </c>
+      <c r="G170" s="6">
+        <v>3303020000</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>421</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F171" t="s">
+        <v>605</v>
+      </c>
+      <c r="G171" s="6">
+        <v>3301020600</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>886</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F172" t="s">
+        <v>740</v>
+      </c>
+      <c r="G172" s="6">
+        <v>3301140400</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>960</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F173" t="s">
+        <v>742</v>
+      </c>
+      <c r="G173" s="6">
+        <v>3301060500</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>125</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F174" t="s">
+        <v>216</v>
+      </c>
+      <c r="G174" s="6">
+        <v>3301010300</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>773</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F175" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="6">
+        <v>3301090303</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>774</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F176" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="6">
+        <v>3301090303</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>781</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="6">
+        <v>3301090303</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>135</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F178" t="s">
+        <v>743</v>
+      </c>
+      <c r="G178" s="6">
+        <v>3301010400</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>411</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F179" t="s">
+        <v>296</v>
+      </c>
+      <c r="G179" s="6">
+        <v>3301020100</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>889</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F180" t="s">
+        <v>228</v>
+      </c>
+      <c r="G180" s="6">
+        <v>3301061213</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>118</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F181" t="s">
+        <v>744</v>
+      </c>
+      <c r="G181" s="6">
+        <v>3301011000</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>777</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F182" t="s">
+        <v>58</v>
+      </c>
+      <c r="G182" s="6">
+        <v>3301081900</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>890</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F183" t="s">
+        <v>228</v>
+      </c>
+      <c r="G183" s="6">
+        <v>3301061213</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>880</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F184" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" s="6">
+        <v>3301090303</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>776</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F185" t="s">
+        <v>324</v>
+      </c>
+      <c r="G185" s="6">
+        <v>3301090301</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>775</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F186" t="s">
+        <v>17</v>
+      </c>
+      <c r="G186" s="6">
+        <v>3301090303</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>779</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" s="6">
+        <v>3301090303</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>119</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F188" t="s">
+        <v>744</v>
+      </c>
+      <c r="G188" s="6">
+        <v>3301011000</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>784</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F189" t="s">
+        <v>157</v>
+      </c>
+      <c r="G189" s="6">
+        <v>3301020300</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>411</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F190" t="s">
+        <v>296</v>
+      </c>
+      <c r="G190" s="6">
+        <v>3301020100</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G153"/>
+  <autoFilter ref="A1:G153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tables/crop_classifications/LV_crop_classification_final.xlsx
+++ b/tables/crop_classifications/LV_crop_classification_final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\Phillip\korrektur_Hcat\Copy_classifications_final_corrected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1196A2-53BD-46DD-8AC7-A550A5330C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="634">
   <si>
     <t>crop_code</t>
   </si>
@@ -1925,363 +1924,12 @@
   </si>
   <si>
     <t>country_code</t>
-  </si>
-  <si>
-    <t>Zaļmēslojuma augu papuve</t>
-  </si>
-  <si>
-    <t>Kārkli</t>
-  </si>
-  <si>
-    <t>Muskata ķirbis</t>
-  </si>
-  <si>
-    <t>Citur neminēti ilggadīgie stādījumi ēdamo augļu un ogu ieguvei</t>
-  </si>
-  <si>
-    <t>Zirņi ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Lielaugļu ķirbis</t>
-  </si>
-  <si>
-    <t>Saulespuķe</t>
-  </si>
-  <si>
-    <t>Sarkanais āboliņš sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Baltais āboliņš sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Inkarnāta āboliņš</t>
-  </si>
-  <si>
-    <t>Pupas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Austrumu galega sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Sierāboliņš</t>
-  </si>
-  <si>
-    <t>Lucerna sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Bastarda āboliņš sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Amoliņš sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Esparsete sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Garšaugi un kultivēti ārstniecības augi (fenhelis, baziliks, timiāns, estragons, anīss, majorāns, oregano jeb raudene, salvija, izops, piparmētra, pupumētra, vērmele, lofants, naktssvece, deviņvīru spēks, ābolmētra, citronmelisa, tauksakne, ehinācija, ārstniecības lupstājs, dižzirdzene, raspodiņš, sirds mātere)</t>
-  </si>
-  <si>
-    <t>Rudzi, populācijas šķirnes, t.sk. ‘Kaupo’ ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Tritikāle, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Lupīna (saldās jeb dzeltenās, baltās, šaurlapu)</t>
-  </si>
-  <si>
-    <t>Graudaugu un vīķu maisījums, kurā vīķi &gt; 50 %</t>
-  </si>
-  <si>
-    <t>Graudaugu un zirņu maisījums, kurā zirņi &gt; 50 %, ar stiebrzāļu vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Sinepe, tostarp baltā sinepe</t>
-  </si>
-  <si>
-    <t>Rudzi, ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Nektāraugi savstarpējos maisījumos vai citur neminētie nektāraugi (t.sk. zilā kāpnīte, malva, izops, mātere, gurķumētra, salvija, citronmētra, tauksakne, raudene)</t>
-  </si>
-  <si>
-    <t>Citi kultivēti nektāraugi (ežziede, biškrēsliņš, pūķgalve, melisa (citronmētra, citronmelisa), daglītis, dedestiņa, kaķumētra, rudzupuķe)</t>
-  </si>
-  <si>
-    <t>Dārza ķirbis, cukīni, kabači, patisoni</t>
-  </si>
-  <si>
-    <t>Kvieši, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Vīķi, vasaras sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Vīķi, ziemas sēklas ieguvei</t>
-  </si>
-  <si>
-    <t>Mieži, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Kumelīte, vasaras</t>
-  </si>
-  <si>
-    <t>Speltas kvieši, vasaras ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Kumelīte, ziemas</t>
-  </si>
-  <si>
-    <t>Speltas kvieši, ziemas ar stiebrzāļu pasēju vai tauriņziežu pasēju</t>
-  </si>
-  <si>
-    <t>Green manure plant fallow</t>
-  </si>
-  <si>
-    <t>Triticale, winter with grass or legume crop</t>
-  </si>
-  <si>
-    <t>Lupin (sweet or yellow, white, narrow-leaved)</t>
-  </si>
-  <si>
-    <t>Mixture of cereals and vetches, with &gt; 50 % of vetches</t>
-  </si>
-  <si>
-    <t>Mixture of cereals and peas, peas &gt; 50 %, with grass or leguminous legume undergrowth</t>
-  </si>
-  <si>
-    <t>Mustard, including white mustard</t>
-  </si>
-  <si>
-    <t>Rye, with grass or legume undergrowth</t>
-  </si>
-  <si>
-    <t>Nectar plants in mixtures or nectar plants not otherwise specified (including blue spurge, mallow, hyssop, motherwort, borage, sage, lemon mint, greasewood, oregano)</t>
-  </si>
-  <si>
-    <t>Muscadine pumpkin</t>
-  </si>
-  <si>
-    <t>Other cultivated nectar plants (echinacea, bee-rush, dragonhead, lemon balm, lemon balm, dogwood, hemlock, catmint, cornflower)</t>
-  </si>
-  <si>
-    <t>Herbs and cultivated medicinal plants (fennel, basil, thyme, tarragon, anise, marjoram, oregano or oregano, sage, hyssop, mint, spearmint, spearmint, wormwood, lofant, nightshade, nightshade, applemint, lemon balm, lemon balm, greasewood, echinacea, herb ragwort, beech, dewdrop, heart motherwort)</t>
-  </si>
-  <si>
-    <t>Garden pumpkin, courgettes, courgettes, patisons</t>
-  </si>
-  <si>
-    <t>Wheat, winter with grass or butterfly crop</t>
-  </si>
-  <si>
-    <t>Vetch, for summer seed</t>
-  </si>
-  <si>
-    <t>Vetch, for winter seed production</t>
-  </si>
-  <si>
-    <t>Perennial crops for edible fruit and berries, not elsewhere specified</t>
-  </si>
-  <si>
-    <t>Peas under grass or legume crops</t>
-  </si>
-  <si>
-    <t>Butternut squash</t>
-  </si>
-  <si>
-    <t>Sunflower</t>
-  </si>
-  <si>
-    <t>Rye, varieties of the population, including 'Kaupo' with grass or legume undergrowth</t>
-  </si>
-  <si>
-    <t>Red clover for seed production</t>
-  </si>
-  <si>
-    <t>White clover for seed production</t>
-  </si>
-  <si>
-    <t>Incarnate clover</t>
-  </si>
-  <si>
-    <t>Barley, winter with grass or butterfly crop</t>
-  </si>
-  <si>
-    <t>Beans with grass or legume undergrowth</t>
-  </si>
-  <si>
-    <t>Chamomile, spring</t>
-  </si>
-  <si>
-    <t>Spelt, spring with grass or legume</t>
-  </si>
-  <si>
-    <t>Eastern galega for seed production</t>
-  </si>
-  <si>
-    <t>Chamomile, winter</t>
-  </si>
-  <si>
-    <t>Cheese clover</t>
-  </si>
-  <si>
-    <t>Lucerne for seed production</t>
-  </si>
-  <si>
-    <t>Bastard clover for seed production</t>
-  </si>
-  <si>
-    <t>Clover for seed production</t>
-  </si>
-  <si>
-    <t>Spelt, winter with grass or legume undergrowth</t>
-  </si>
-  <si>
-    <t>Esparsete for seed production</t>
-  </si>
-  <si>
-    <t>Gründüngungspflanze Brache</t>
-  </si>
-  <si>
-    <t>Triticale, Winter mit Gras oder Leguminosen</t>
-  </si>
-  <si>
-    <t>Mischung aus Getreide und Wicken, mit &gt; 50 % Wicken</t>
-  </si>
-  <si>
-    <t>Mischung aus Getreide und Erbsen, davon &gt; 50 % Erbsen, mit Gras- oder Hülsenfruchtunterwuchs</t>
-  </si>
-  <si>
-    <t>Senf, einschließlich weißer Senf</t>
-  </si>
-  <si>
-    <t>Roggen, mit Gras- oder Leguminosenunterwuchs</t>
-  </si>
-  <si>
-    <t>Nektarpflanzen in Mischungen oder Nektarpflanzen, die nicht anderweitig genannt sind (einschließlich Blaue Wolfsmilch, Malve, Ysop, Mutterkraut, Borretsch, Salbei, Zitronenminze, Fettkraut, Oregano)</t>
-  </si>
-  <si>
-    <t>Muskateller-Kürbis</t>
-  </si>
-  <si>
-    <t>Andere kultivierte Nektarpflanzen (Echinacea, Bienenfreund, Drachenkopf, Melisse, Hartriegel, Schierling, Katzenminze, Kornblume)</t>
-  </si>
-  <si>
-    <t>Kräuter und kultivierte Heilpflanzen (Fenchel, Basilikum, Thymian, Estragon, Anis, Majoran, Oregano, Salbei, Ysop, Minze, Krauseminze, Wermut, Lofant, Nachtschatten, Nachtschattengewächse, Apfelminze, Zitronenmelisse, Melisse, Sonnenhut, Echinacea, Kreuzkraut, Buche, Tautropfen, Herzgespann)</t>
-  </si>
-  <si>
-    <t>Gartenkürbis, Zucchini, Zucchinis, Patisons</t>
-  </si>
-  <si>
-    <t>Weizen, Winter mit Gras oder Schmetterlingsfrucht</t>
-  </si>
-  <si>
-    <t>Wicke, für Sommersaatgut</t>
-  </si>
-  <si>
-    <t>Wicke, für die Wintersaatgutproduktion</t>
-  </si>
-  <si>
-    <t>Mehrjährige Kulturen für essbare Früchte und Beeren, anderweitig nicht genannt</t>
-  </si>
-  <si>
-    <t>Erbsen unter Gras- oder Hülsenfruchtkulturen</t>
-  </si>
-  <si>
-    <t>Butternut-Kürbis</t>
-  </si>
-  <si>
-    <t>Sonnenblumen</t>
-  </si>
-  <si>
-    <t>Roggen, Sorten der Population, einschließlich „Kaupo“ mit Gras- oder Hülsenfruchtunterwuchs</t>
-  </si>
-  <si>
-    <t>Rotklee zur Saatguterzeugung</t>
-  </si>
-  <si>
-    <t>Weißklee für die Saatguterzeugung</t>
-  </si>
-  <si>
-    <t>Inkarnatklee</t>
-  </si>
-  <si>
-    <t>Gerste, Wintergerste mit Gras oder Schmetterlingsblütlern</t>
-  </si>
-  <si>
-    <t>Bohnen mit Gras- oder Leguminosenunterwuchs</t>
-  </si>
-  <si>
-    <t>Kamille, Frühjahr</t>
-  </si>
-  <si>
-    <t>Dinkel, Frühjahr mit Gras oder Leguminosen</t>
-  </si>
-  <si>
-    <t>Östliche Galega zur Saatguterzeugung</t>
-  </si>
-  <si>
-    <t>Kamille, Winter</t>
-  </si>
-  <si>
-    <t>Käseklee</t>
-  </si>
-  <si>
-    <t>Luzerne für die Saatguterzeugung</t>
-  </si>
-  <si>
-    <t>Bastardklee für die Saatguterzeugung</t>
-  </si>
-  <si>
-    <t>Klee für die Saatguterzeugung</t>
-  </si>
-  <si>
-    <t>Dinkel, Winter mit Gras- oder Leguminosenunterwuchs</t>
-  </si>
-  <si>
-    <t>Esparsette für die Saatguterzeugung</t>
-  </si>
-  <si>
-    <t>legumes_harvested_green</t>
-  </si>
-  <si>
-    <t>pumpkin_squash_gourd</t>
-  </si>
-  <si>
-    <t>winter_durum_hard_wheat</t>
-  </si>
-  <si>
-    <t>sunflower</t>
-  </si>
-  <si>
-    <t>barley</t>
-  </si>
-  <si>
-    <t>spelt</t>
-  </si>
-  <si>
-    <t>other_plants_harvested_green</t>
-  </si>
-  <si>
-    <t>triticale</t>
-  </si>
-  <si>
-    <t>Weide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pupas ar stiebrzāļu pasēju vai tauriņziežu pasēju  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beans with grass or legume crops  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bohnen mit Gras- oder Hülsenfruchtanbau  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2332,21 +1980,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2645,26 +2287,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="68.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2683,14 +2325,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>446</v>
       </c>
@@ -2709,14 +2351,14 @@
       <c r="F2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>3301011500</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>445</v>
       </c>
@@ -2735,14 +2377,14 @@
       <c r="F3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>3301011500</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>792</v>
       </c>
@@ -2761,14 +2403,14 @@
       <c r="F4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>3399000000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>939</v>
       </c>
@@ -2787,14 +2429,14 @@
       <c r="F5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>3399000000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>610</v>
       </c>
@@ -2813,14 +2455,14 @@
       <c r="F6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>3399000000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>619</v>
       </c>
@@ -2839,14 +2481,14 @@
       <c r="F7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>3399000000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>857</v>
       </c>
@@ -2865,14 +2507,14 @@
       <c r="F8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>3301140000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>792</v>
       </c>
@@ -2891,14 +2533,14 @@
       <c r="F9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>3399000000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>729</v>
       </c>
@@ -2917,14 +2559,14 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>3301090303</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>644</v>
       </c>
@@ -2943,14 +2585,14 @@
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>3306020000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>760</v>
       </c>
@@ -2969,14 +2611,14 @@
       <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>3302000000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>720</v>
       </c>
@@ -2995,14 +2637,14 @@
       <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>3302000000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>720</v>
       </c>
@@ -3021,14 +2663,14 @@
       <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>3302000000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>760</v>
       </c>
@@ -3047,14 +2689,14 @@
       <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>3302000000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>937</v>
       </c>
@@ -3073,14 +2715,14 @@
       <c r="F16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>3301140300</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>918</v>
       </c>
@@ -3099,14 +2741,14 @@
       <c r="F17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>3303020100</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>950</v>
       </c>
@@ -3125,14 +2767,14 @@
       <c r="F18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>3303020000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>950</v>
       </c>
@@ -3151,14 +2793,14 @@
       <c r="F19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>3303020000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>727</v>
       </c>
@@ -3177,14 +2819,14 @@
       <c r="F20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <v>3301081900</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>140</v>
       </c>
@@ -3203,14 +2845,14 @@
       <c r="F21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>3301010500</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>141</v>
       </c>
@@ -3229,14 +2871,14 @@
       <c r="F22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="2">
         <v>3301010500</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>761</v>
       </c>
@@ -3255,14 +2897,14 @@
       <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>3301090202</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>921</v>
       </c>
@@ -3281,14 +2923,14 @@
       <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
         <v>3303021000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>724</v>
       </c>
@@ -3307,14 +2949,14 @@
       <c r="F25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="2">
         <v>3301090303</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>646</v>
       </c>
@@ -3333,14 +2975,14 @@
       <c r="F26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="2">
         <v>3306000000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>725</v>
       </c>
@@ -3359,14 +3001,14 @@
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="2">
         <v>3301090303</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>912</v>
       </c>
@@ -3385,14 +3027,14 @@
       <c r="F28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="2">
         <v>3303011200</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>843</v>
       </c>
@@ -3411,14 +3053,14 @@
       <c r="F29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>3301290300</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>825</v>
       </c>
@@ -3437,14 +3079,14 @@
       <c r="F30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="2">
         <v>3301030000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>883</v>
       </c>
@@ -3463,14 +3105,14 @@
       <c r="F31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>3301310200</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>930</v>
       </c>
@@ -3489,14 +3131,14 @@
       <c r="F32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="2">
         <v>3301061200</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>741</v>
       </c>
@@ -3515,14 +3157,14 @@
       <c r="F33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="2">
         <v>3301010600</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>713</v>
       </c>
@@ -3541,14 +3183,14 @@
       <c r="F34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="2">
         <v>3302000000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>952</v>
       </c>
@@ -3567,14 +3209,14 @@
       <c r="F35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="2">
         <v>3303000000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>870</v>
       </c>
@@ -3593,14 +3235,14 @@
       <c r="F36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="2">
         <v>3301210200</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>734</v>
       </c>
@@ -3619,14 +3261,14 @@
       <c r="F37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="2">
         <v>3301090205</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>811</v>
       </c>
@@ -3645,14 +3287,14 @@
       <c r="F38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="2">
         <v>3301990000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>811</v>
       </c>
@@ -3671,14 +3313,14 @@
       <c r="F39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="2">
         <v>3301990000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>931</v>
       </c>
@@ -3697,14 +3339,14 @@
       <c r="F40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="2">
         <v>3303021300</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="2" t="s">
         <v>144</v>
@@ -3717,14 +3359,14 @@
       <c r="F41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="2">
         <v>3301140000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>871</v>
       </c>
@@ -3743,14 +3385,14 @@
       <c r="F42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="2">
         <v>3301070000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>871</v>
       </c>
@@ -3769,14 +3411,14 @@
       <c r="F43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="2">
         <v>3301070000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>714</v>
       </c>
@@ -3795,14 +3437,14 @@
       <c r="F44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="2">
         <v>3301020300</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>715</v>
       </c>
@@ -3821,14 +3463,14 @@
       <c r="F45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <v>3301061400</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>716</v>
       </c>
@@ -3847,14 +3489,14 @@
       <c r="F46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="2">
         <v>3301061400</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>844</v>
       </c>
@@ -3873,14 +3515,14 @@
       <c r="F47" t="s">
         <v>628</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>3301310100</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>856</v>
       </c>
@@ -3899,14 +3541,14 @@
       <c r="F48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="2">
         <v>3301210500</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>851</v>
       </c>
@@ -3925,14 +3567,14 @@
       <c r="F49" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="2">
         <v>3301290800</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>736</v>
       </c>
@@ -3951,14 +3593,14 @@
       <c r="F50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="2">
         <v>3301090205</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" s="2" t="s">
         <v>183</v>
@@ -3971,14 +3613,14 @@
       <c r="F51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="2">
         <v>3301061200</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>848</v>
       </c>
@@ -3997,14 +3639,14 @@
       <c r="F52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="2">
         <v>3301061200</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>445</v>
       </c>
@@ -4023,14 +3665,14 @@
       <c r="F53" t="s">
         <v>629</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>3301020000</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>160</v>
       </c>
@@ -4049,14 +3691,14 @@
       <c r="F54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="2">
         <v>3301150200</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>161</v>
       </c>
@@ -4075,14 +3717,14 @@
       <c r="F55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="2">
         <v>3301150200</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>845</v>
       </c>
@@ -4101,14 +3743,14 @@
       <c r="F56" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="2">
         <v>3301140100</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>733</v>
       </c>
@@ -4127,14 +3769,14 @@
       <c r="F57" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="2">
         <v>3301010300</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>710</v>
       </c>
@@ -4153,14 +3795,14 @@
       <c r="F58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="2">
         <v>3302000000</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59" s="2" t="s">
         <v>389</v>
@@ -4173,14 +3815,14 @@
       <c r="F59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="2">
         <v>3399000000</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>739</v>
       </c>
@@ -4199,14 +3841,14 @@
       <c r="F60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="2">
         <v>3301061213</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>820</v>
       </c>
@@ -4225,14 +3867,14 @@
       <c r="F61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="2">
         <v>3301030000</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>929</v>
       </c>
@@ -4251,14 +3893,14 @@
       <c r="F62" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="2">
         <v>3303020200</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>170</v>
       </c>
@@ -4277,14 +3919,14 @@
       <c r="F63" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="2">
         <v>3301061000</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>882</v>
       </c>
@@ -4303,14 +3945,14 @@
       <c r="F64" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="2">
         <v>3301061210</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" s="2" t="s">
         <v>245</v>
@@ -4323,14 +3965,14 @@
       <c r="F65" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="2">
         <v>3301090208</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>640</v>
       </c>
@@ -4349,14 +3991,14 @@
       <c r="F66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="2">
         <v>3303070000</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>928</v>
       </c>
@@ -4375,14 +4017,14 @@
       <c r="F67" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="2">
         <v>3303011500</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>924</v>
       </c>
@@ -4401,14 +4043,14 @@
       <c r="F68" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="2">
         <v>3303020400</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>791</v>
       </c>
@@ -4427,14 +4069,14 @@
       <c r="F69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="2">
         <v>3301010600</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>881</v>
       </c>
@@ -4453,14 +4095,14 @@
       <c r="F70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="2">
         <v>3301061213</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>113</v>
       </c>
@@ -4479,14 +4121,14 @@
       <c r="F71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="2">
         <v>3301010102</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>111</v>
       </c>
@@ -4505,14 +4147,14 @@
       <c r="F72" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="2">
         <v>3301010102</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>112</v>
       </c>
@@ -4531,14 +4173,14 @@
       <c r="F73" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="2">
         <v>3301010101</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>645</v>
       </c>
@@ -4557,14 +4199,14 @@
       <c r="F74" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="2">
         <v>3306080000</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>620</v>
       </c>
@@ -4583,14 +4225,14 @@
       <c r="F75" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="2">
         <v>3303020600</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>410</v>
       </c>
@@ -4609,14 +4251,14 @@
       <c r="F76" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="2">
         <v>3301020100</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>885</v>
       </c>
@@ -4635,14 +4277,14 @@
       <c r="F77" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="2">
         <v>3301061219</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>934</v>
       </c>
@@ -4661,14 +4303,14 @@
       <c r="F78" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="2">
         <v>3303020500</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>330</v>
       </c>
@@ -4687,14 +4329,14 @@
       <c r="F79" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="2">
         <v>3301060702</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>310</v>
       </c>
@@ -4713,14 +4355,14 @@
       <c r="F80" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="2">
         <v>3301060701</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>831</v>
       </c>
@@ -4739,14 +4381,14 @@
       <c r="F81" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="2">
         <v>3301290400</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>726</v>
       </c>
@@ -4765,14 +4407,14 @@
       <c r="F82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="2">
         <v>3301090301</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>430</v>
       </c>
@@ -4791,14 +4433,14 @@
       <c r="F83" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="2">
         <v>3301020700</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>641</v>
       </c>
@@ -4817,14 +4459,14 @@
       <c r="F84" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="2">
         <v>3301011400</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>133</v>
       </c>
@@ -4843,14 +4485,14 @@
       <c r="F85" t="s">
         <v>630</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85">
         <v>3301010402</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>131</v>
       </c>
@@ -4869,14 +4511,14 @@
       <c r="F86" t="s">
         <v>630</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86">
         <v>3301010402</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>132</v>
       </c>
@@ -4895,14 +4537,14 @@
       <c r="F87" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="2">
         <v>3301010401</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>879</v>
       </c>
@@ -4921,14 +4563,14 @@
       <c r="F88" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="2">
         <v>3301061300</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>863</v>
       </c>
@@ -4947,14 +4589,14 @@
       <c r="F89" t="s">
         <v>355</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89">
         <v>3301210400</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>737</v>
       </c>
@@ -4973,14 +4615,14 @@
       <c r="F90" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="2">
         <v>3301090202</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>867</v>
       </c>
@@ -4999,14 +4641,14 @@
       <c r="F91" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="2">
         <v>3301300100</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>610</v>
       </c>
@@ -5025,14 +4667,14 @@
       <c r="F92" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="2">
         <v>3301110000</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>874</v>
       </c>
@@ -5051,14 +4693,14 @@
       <c r="F93" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="2">
         <v>3301061203</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>859</v>
       </c>
@@ -5077,14 +4719,14 @@
       <c r="F94" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="2">
         <v>3301020100</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>855</v>
       </c>
@@ -5103,14 +4745,14 @@
       <c r="F95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="2">
         <v>3301290500</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>914</v>
       </c>
@@ -5129,14 +4771,14 @@
       <c r="F96" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="2">
         <v>3303011300</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>915</v>
       </c>
@@ -5155,14 +4797,14 @@
       <c r="F97" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="2">
         <v>3303080400</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>849</v>
       </c>
@@ -5181,14 +4823,14 @@
       <c r="F98" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="2">
         <v>3301220300</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>873</v>
       </c>
@@ -5207,14 +4849,14 @@
       <c r="F99" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="2">
         <v>3301990000</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>872</v>
       </c>
@@ -5233,14 +4875,14 @@
       <c r="F100" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="2">
         <v>3301990000</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>854</v>
       </c>
@@ -5259,14 +4901,14 @@
       <c r="F101" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="2">
         <v>3301061227</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>732</v>
       </c>
@@ -5285,14 +4927,14 @@
       <c r="F102" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="2">
         <v>3301090202</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>738</v>
       </c>
@@ -5311,14 +4953,14 @@
       <c r="F103" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="2">
         <v>3301090202</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>731</v>
       </c>
@@ -5337,14 +4979,14 @@
       <c r="F104" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="2">
         <v>3301090209</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>861</v>
       </c>
@@ -5363,14 +5005,14 @@
       <c r="F105" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="2">
         <v>3301230000</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>728</v>
       </c>
@@ -5389,14 +5031,14 @@
       <c r="F106" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="2">
         <v>3301082600</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>211</v>
       </c>
@@ -5415,14 +5057,14 @@
       <c r="F107" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="2">
         <v>3301060403</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>212</v>
       </c>
@@ -5441,14 +5083,14 @@
       <c r="F108" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="2">
         <v>3301060401</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>853</v>
       </c>
@@ -5467,14 +5109,14 @@
       <c r="F109" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="2">
         <v>3301290600</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>213</v>
       </c>
@@ -5493,14 +5135,14 @@
       <c r="F110" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="2">
         <v>3301060403</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>214</v>
       </c>
@@ -5519,14 +5161,14 @@
       <c r="F111" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="2">
         <v>3301060401</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>121</v>
       </c>
@@ -5545,14 +5187,14 @@
       <c r="F112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="2">
         <v>3301010300</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>122</v>
       </c>
@@ -5571,14 +5213,14 @@
       <c r="F113" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="2">
         <v>3301010300</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>122</v>
       </c>
@@ -5597,14 +5239,14 @@
       <c r="F114" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="2">
         <v>3301010300</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>123</v>
       </c>
@@ -5623,14 +5265,14 @@
       <c r="F115" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="2">
         <v>3301010300</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>932</v>
       </c>
@@ -5649,14 +5291,14 @@
       <c r="F116" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="2">
         <v>3303010400</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>864</v>
       </c>
@@ -5675,14 +5317,14 @@
       <c r="F117" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="2">
         <v>3301310000</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>723</v>
       </c>
@@ -5701,14 +5343,14 @@
       <c r="F118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="2">
         <v>3301090303</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>735</v>
       </c>
@@ -5727,14 +5369,14 @@
       <c r="F119" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="2">
         <v>3301090202</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>933</v>
       </c>
@@ -5753,14 +5395,14 @@
       <c r="F120" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="2">
         <v>3303020600</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>938</v>
       </c>
@@ -5779,14 +5421,14 @@
       <c r="F121" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="2">
         <v>3303080500</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>852</v>
       </c>
@@ -5805,14 +5447,14 @@
       <c r="F122" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="2">
         <v>3301250000</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>215</v>
       </c>
@@ -5831,14 +5473,14 @@
       <c r="F123" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="2">
         <v>3301210100</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>216</v>
       </c>
@@ -5857,14 +5499,14 @@
       <c r="F124" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="2">
         <v>3301210100</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>216</v>
       </c>
@@ -5883,14 +5525,14 @@
       <c r="F125" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="2">
         <v>3301210100</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>860</v>
       </c>
@@ -5909,14 +5551,14 @@
       <c r="F126" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="2">
         <v>3301310700</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>919</v>
       </c>
@@ -5935,14 +5577,14 @@
       <c r="F127" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="2">
         <v>3303020800</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>443</v>
       </c>
@@ -5961,14 +5603,14 @@
       <c r="F128" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="2">
         <v>3301160000</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>869</v>
       </c>
@@ -5987,14 +5629,14 @@
       <c r="F129" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="2">
         <v>3301200000</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>115</v>
       </c>
@@ -6013,14 +5655,14 @@
       <c r="F130" t="s">
         <v>631</v>
       </c>
-      <c r="G130" s="6">
+      <c r="G130">
         <v>3301011002</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>116</v>
       </c>
@@ -6039,14 +5681,14 @@
       <c r="F131" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="2">
         <v>3301011001</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>862</v>
       </c>
@@ -6065,14 +5707,14 @@
       <c r="F132" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="2">
         <v>3301310800</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>877</v>
       </c>
@@ -6091,14 +5733,14 @@
       <c r="F133" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="2">
         <v>3301061215</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>821</v>
       </c>
@@ -6117,14 +5759,14 @@
       <c r="F134" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="2">
         <v>3301030000</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>846</v>
       </c>
@@ -6143,14 +5785,14 @@
       <c r="F135" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="2">
         <v>3301220000</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>826</v>
       </c>
@@ -6169,14 +5811,14 @@
       <c r="F136" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="2">
         <v>3301280000</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>865</v>
       </c>
@@ -6195,14 +5837,14 @@
       <c r="F137" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="2">
         <v>3301180000</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>152</v>
       </c>
@@ -6221,14 +5863,14 @@
       <c r="F138" t="s">
         <v>632</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G138">
         <v>3301010802</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>150</v>
       </c>
@@ -6247,14 +5889,14 @@
       <c r="F139" t="s">
         <v>632</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G139">
         <v>3301010802</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>151</v>
       </c>
@@ -6273,14 +5915,14 @@
       <c r="F140" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="2">
         <v>3301010801</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>922</v>
       </c>
@@ -6299,14 +5941,14 @@
       <c r="F141" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="2">
         <v>3303020300</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>935</v>
       </c>
@@ -6325,14 +5967,14 @@
       <c r="F142" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="2">
         <v>3303060000</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>858</v>
       </c>
@@ -6351,14 +5993,14 @@
       <c r="F143" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="2">
         <v>3303010600</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>441</v>
       </c>
@@ -6377,14 +6019,14 @@
       <c r="F144" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="2">
         <v>3301090305</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>442</v>
       </c>
@@ -6403,14 +6045,14 @@
       <c r="F145" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="2">
         <v>3301090305</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>926</v>
       </c>
@@ -6429,14 +6071,14 @@
       <c r="F146" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="2">
         <v>3301130000</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>842</v>
       </c>
@@ -6455,14 +6097,14 @@
       <c r="F147" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G147" s="2">
         <v>3301210204</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>420</v>
       </c>
@@ -6481,14 +6123,14 @@
       <c r="F148" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="2">
         <v>3301020600</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>911</v>
       </c>
@@ -6507,14 +6149,14 @@
       <c r="F149" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="2">
         <v>3303010200</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>884</v>
       </c>
@@ -6533,14 +6175,14 @@
       <c r="F150" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="2">
         <v>3301061209</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>927</v>
       </c>
@@ -6559,14 +6201,14 @@
       <c r="F151" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="2">
         <v>3303020700</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>878</v>
       </c>
@@ -6585,14 +6227,14 @@
       <c r="F152" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="2">
         <v>3301061211</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>847</v>
       </c>
@@ -6611,977 +6253,15 @@
       <c r="F153" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="2">
         <v>3301220200</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
-        <v>612</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F154" t="s">
-        <v>745</v>
-      </c>
-      <c r="G154" s="6">
-        <v>3301099900</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F155" t="s">
-        <v>746</v>
-      </c>
-      <c r="G155" s="6">
-        <v>3301010800</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>430</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F156" t="s">
-        <v>329</v>
-      </c>
-      <c r="G156" s="6">
-        <v>3301020700</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>447</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="F157" t="s">
-        <v>589</v>
-      </c>
-      <c r="G157" s="6">
-        <v>3301090305</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
-        <v>446</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="F158" t="s">
-        <v>739</v>
-      </c>
-      <c r="G158" s="6">
-        <v>3301090300</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
-        <v>215</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F159" t="s">
-        <v>499</v>
-      </c>
-      <c r="G159" s="6">
-        <v>3301210100</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
-        <v>645</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F160" t="s">
-        <v>287</v>
-      </c>
-      <c r="G160" s="6">
-        <v>3306080000</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
-        <v>124</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F161" t="s">
-        <v>216</v>
-      </c>
-      <c r="G161" s="6">
-        <v>3301010300</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
-        <v>940</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F162" t="s">
-        <v>107</v>
-      </c>
-      <c r="G162" s="6">
-        <v>3301061200</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
-        <v>887</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F163" t="s">
-        <v>740</v>
-      </c>
-      <c r="G163" s="6">
-        <v>3301140400</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
-        <v>930</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="F164" t="s">
-        <v>107</v>
-      </c>
-      <c r="G164" s="6">
-        <v>3301061200</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
-        <v>848</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="F165" t="s">
-        <v>107</v>
-      </c>
-      <c r="G165" s="6">
-        <v>3301061200</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
-        <v>857</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F166" t="s">
-        <v>740</v>
-      </c>
-      <c r="G166" s="6">
-        <v>3301140400</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
-        <v>117</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="F167" t="s">
-        <v>741</v>
-      </c>
-      <c r="G167" s="6">
-        <v>3301010201</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
-        <v>471</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F168" t="s">
-        <v>589</v>
-      </c>
-      <c r="G168" s="6">
-        <v>3301090305</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>472</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="F169" t="s">
-        <v>589</v>
-      </c>
-      <c r="G169" s="6">
-        <v>3301090305</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>952</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F170" t="s">
-        <v>53</v>
-      </c>
-      <c r="G170" s="6">
-        <v>3303020000</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
-        <v>421</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F171" t="s">
-        <v>605</v>
-      </c>
-      <c r="G171" s="6">
-        <v>3301020600</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
-        <v>886</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F172" t="s">
-        <v>740</v>
-      </c>
-      <c r="G172" s="6">
-        <v>3301140400</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>960</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="F173" t="s">
-        <v>742</v>
-      </c>
-      <c r="G173" s="6">
-        <v>3301060500</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>125</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F174" t="s">
-        <v>216</v>
-      </c>
-      <c r="G174" s="6">
-        <v>3301010300</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>773</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" s="6">
-        <v>3301090303</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>774</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" s="6">
-        <v>3301090303</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
-        <v>781</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" s="6">
-        <v>3301090303</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
-        <v>135</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="F178" t="s">
-        <v>743</v>
-      </c>
-      <c r="G178" s="6">
-        <v>3301010400</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
-        <v>411</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="F179" t="s">
-        <v>296</v>
-      </c>
-      <c r="G179" s="6">
-        <v>3301020100</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
-        <v>889</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F180" t="s">
-        <v>228</v>
-      </c>
-      <c r="G180" s="6">
-        <v>3301061213</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
-        <v>118</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="F181" t="s">
-        <v>744</v>
-      </c>
-      <c r="G181" s="6">
-        <v>3301011000</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
-        <v>777</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F182" t="s">
-        <v>58</v>
-      </c>
-      <c r="G182" s="6">
-        <v>3301081900</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
-        <v>890</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="F183" t="s">
-        <v>228</v>
-      </c>
-      <c r="G183" s="6">
-        <v>3301061213</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
-        <v>880</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" s="6">
-        <v>3301090303</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
-        <v>776</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F185" t="s">
-        <v>324</v>
-      </c>
-      <c r="G185" s="6">
-        <v>3301090301</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
-        <v>775</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" s="6">
-        <v>3301090303</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
-        <v>779</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" s="6">
-        <v>3301090303</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
-        <v>119</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="F188" t="s">
-        <v>744</v>
-      </c>
-      <c r="G188" s="6">
-        <v>3301011000</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
-        <v>784</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="F189" t="s">
-        <v>157</v>
-      </c>
-      <c r="G189" s="6">
-        <v>3301020300</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
-        <v>411</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F190" t="s">
-        <v>296</v>
-      </c>
-      <c r="G190" s="6">
-        <v>3301020100</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G153"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>